--- a/Assets/donnees/Formats.xlsx
+++ b/Assets/donnees/Formats.xlsx
@@ -1814,7 +1814,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,12 +1844,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1901,7 +1895,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1919,10 +1913,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2067,12 +2057,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H235" activeCellId="0" sqref="H235"/>
     </sheetView>
   </sheetViews>
@@ -2135,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2172,11 +2162,11 @@
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -2299,7 +2289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -2340,7 +2330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -2381,7 +2371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2504,7 +2494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -2545,7 +2535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -2656,7 +2646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2779,7 +2769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2820,7 +2810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2902,7 +2892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -2943,7 +2933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -2984,7 +2974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -3025,7 +3015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -3066,7 +3056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
@@ -3101,7 +3091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -3136,7 +3126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
@@ -3171,7 +3161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>117</v>
       </c>
@@ -3206,7 +3196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>119</v>
       </c>
@@ -3241,7 +3231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>121</v>
       </c>
@@ -3276,7 +3266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>123</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>125</v>
       </c>
@@ -3346,7 +3336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3381,7 +3371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>129</v>
       </c>
@@ -3416,7 +3406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>131</v>
       </c>
@@ -3451,7 +3441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
@@ -3486,7 +3476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>136</v>
       </c>
@@ -3521,7 +3511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>138</v>
       </c>
@@ -3556,7 +3546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>140</v>
       </c>
@@ -3591,7 +3581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>142</v>
       </c>
@@ -3626,7 +3616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3661,7 +3651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>146</v>
       </c>
@@ -3696,7 +3686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
@@ -3731,7 +3721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>150</v>
       </c>
@@ -3766,7 +3756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
@@ -3801,7 +3791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>154</v>
       </c>
@@ -3836,7 +3826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>156</v>
       </c>
@@ -3871,7 +3861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>158</v>
       </c>
@@ -3906,7 +3896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>160</v>
       </c>
@@ -3941,7 +3931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>162</v>
       </c>
@@ -3976,7 +3966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>164</v>
       </c>
@@ -4011,7 +4001,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>168</v>
       </c>
@@ -4046,7 +4036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>172</v>
       </c>
@@ -4087,7 +4077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>178</v>
       </c>
@@ -4128,7 +4118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>180</v>
       </c>
@@ -4169,7 +4159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>182</v>
       </c>
@@ -4210,7 +4200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>191</v>
       </c>
@@ -4251,7 +4241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>193</v>
       </c>
@@ -4292,7 +4282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>195</v>
       </c>
@@ -4333,7 +4323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>197</v>
       </c>
@@ -4374,7 +4364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>207</v>
       </c>
@@ -4415,7 +4405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>209</v>
       </c>
@@ -4450,7 +4440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>212</v>
       </c>
@@ -4485,7 +4475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>214</v>
       </c>
@@ -4520,7 +4510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>216</v>
       </c>
@@ -4555,7 +4545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>218</v>
       </c>
@@ -4590,7 +4580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>220</v>
       </c>
@@ -4631,7 +4621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>228</v>
       </c>
@@ -4672,7 +4662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>230</v>
       </c>
@@ -4713,7 +4703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>232</v>
       </c>
@@ -4754,7 +4744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -4795,7 +4785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>239</v>
       </c>
@@ -4836,7 +4826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>241</v>
       </c>
@@ -4877,7 +4867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>243</v>
       </c>
@@ -4918,7 +4908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>245</v>
       </c>
@@ -4959,7 +4949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>247</v>
       </c>
@@ -5000,7 +4990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>249</v>
       </c>
@@ -5035,7 +5025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
@@ -5070,7 +5060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>253</v>
       </c>
@@ -5105,7 +5095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>255</v>
       </c>
@@ -5140,7 +5130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>257</v>
       </c>
@@ -5175,7 +5165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>259</v>
       </c>
@@ -5210,7 +5200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>261</v>
       </c>
@@ -5245,7 +5235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>264</v>
       </c>
@@ -5280,7 +5270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>266</v>
       </c>
@@ -5315,7 +5305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>268</v>
       </c>
@@ -5350,7 +5340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>270</v>
       </c>
@@ -5385,7 +5375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>272</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>274</v>
       </c>
@@ -5455,7 +5445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>276</v>
       </c>
@@ -5490,7 +5480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>278</v>
       </c>
@@ -5525,7 +5515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>280</v>
       </c>
@@ -5560,7 +5550,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>284</v>
       </c>
@@ -5595,7 +5585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>286</v>
       </c>
@@ -5630,7 +5620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>288</v>
       </c>
@@ -5665,7 +5655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>292</v>
       </c>
@@ -5700,7 +5690,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>294</v>
       </c>
@@ -5735,7 +5725,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>298</v>
       </c>
@@ -5770,7 +5760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>300</v>
       </c>
@@ -5805,7 +5795,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>302</v>
       </c>
@@ -5840,7 +5830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>306</v>
       </c>
@@ -5875,7 +5865,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>308</v>
       </c>
@@ -5910,7 +5900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>310</v>
       </c>
@@ -5945,7 +5935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>312</v>
       </c>
@@ -5980,7 +5970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>314</v>
       </c>
@@ -6015,7 +6005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>316</v>
       </c>
@@ -6050,7 +6040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>318</v>
       </c>
@@ -6085,7 +6075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>320</v>
       </c>
@@ -6120,7 +6110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>322</v>
       </c>
@@ -6155,7 +6145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>324</v>
       </c>
@@ -6190,7 +6180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>327</v>
       </c>
@@ -6225,7 +6215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>329</v>
       </c>
@@ -6260,7 +6250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>331</v>
       </c>
@@ -6295,7 +6285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>334</v>
       </c>
@@ -6330,7 +6320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>336</v>
       </c>
@@ -6365,7 +6355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>338</v>
       </c>
@@ -6400,7 +6390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>340</v>
       </c>
@@ -6435,7 +6425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>342</v>
       </c>
@@ -6470,7 +6460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>344</v>
       </c>
@@ -6505,7 +6495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>346</v>
       </c>
@@ -6540,7 +6530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>348</v>
       </c>
@@ -6575,7 +6565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>350</v>
       </c>
@@ -6610,7 +6600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>352</v>
       </c>
@@ -6645,7 +6635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>354</v>
       </c>
@@ -6680,7 +6670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>357</v>
       </c>
@@ -6715,7 +6705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>359</v>
       </c>
@@ -6750,7 +6740,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>361</v>
       </c>
@@ -6785,7 +6775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>363</v>
       </c>
@@ -6820,7 +6810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>365</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -6896,7 +6886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>369</v>
       </c>
@@ -6937,7 +6927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>371</v>
       </c>
@@ -6978,7 +6968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>371</v>
       </c>
@@ -7019,7 +7009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>374</v>
       </c>
@@ -7060,7 +7050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>374</v>
       </c>
@@ -7101,7 +7091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>376</v>
       </c>
@@ -7142,7 +7132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>376</v>
       </c>
@@ -7183,7 +7173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>378</v>
       </c>
@@ -7224,7 +7214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>380</v>
       </c>
@@ -7265,7 +7255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>382</v>
       </c>
@@ -7306,7 +7296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>384</v>
       </c>
@@ -7347,7 +7337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>386</v>
       </c>
@@ -7382,7 +7372,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>388</v>
       </c>
@@ -7417,7 +7407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>390</v>
       </c>
@@ -7452,7 +7442,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>392</v>
       </c>
@@ -7493,7 +7483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>400</v>
       </c>
@@ -7534,7 +7524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>402</v>
       </c>
@@ -7575,7 +7565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>404</v>
       </c>
@@ -7616,7 +7606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>406</v>
       </c>
@@ -7657,7 +7647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>408</v>
       </c>
@@ -7698,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>410</v>
       </c>
@@ -7739,7 +7729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>412</v>
       </c>
@@ -7780,7 +7770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>414</v>
       </c>
@@ -7821,7 +7811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>416</v>
       </c>
@@ -7862,7 +7852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>418</v>
       </c>
@@ -7903,7 +7893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>420</v>
       </c>
@@ -7938,7 +7928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>422</v>
       </c>
@@ -7973,7 +7963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>424</v>
       </c>
@@ -8008,7 +7998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>426</v>
       </c>
@@ -8043,7 +8033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>428</v>
       </c>
@@ -8078,7 +8068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>430</v>
       </c>
@@ -8113,7 +8103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>432</v>
       </c>
@@ -8148,7 +8138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>435</v>
       </c>
@@ -8189,7 +8179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>443</v>
       </c>
@@ -8224,7 +8214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>445</v>
       </c>
@@ -8259,7 +8249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>448</v>
       </c>
@@ -8294,7 +8284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>450</v>
       </c>
@@ -8329,7 +8319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>452</v>
       </c>
@@ -8364,7 +8354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>454</v>
       </c>
@@ -8399,7 +8389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>456</v>
       </c>
@@ -8440,7 +8430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>462</v>
       </c>
@@ -8481,7 +8471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>464</v>
       </c>
@@ -8513,7 +8503,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>467</v>
       </c>
@@ -8548,7 +8538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>469</v>
       </c>
@@ -8583,7 +8573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>471</v>
       </c>
@@ -8618,7 +8608,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>473</v>
       </c>
@@ -8653,7 +8643,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>475</v>
       </c>
@@ -8688,7 +8678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>477</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>479</v>
       </c>
@@ -8758,7 +8748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>481</v>
       </c>
@@ -8793,7 +8783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>483</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>485</v>
       </c>
@@ -8869,7 +8859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>487</v>
       </c>
@@ -8910,7 +8900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>489</v>
       </c>
@@ -8951,7 +8941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>491</v>
       </c>
@@ -8992,7 +8982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>493</v>
       </c>
@@ -9033,7 +9023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>501</v>
       </c>
@@ -9074,7 +9064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>503</v>
       </c>
@@ -9115,7 +9105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>505</v>
       </c>
@@ -9156,7 +9146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>507</v>
       </c>
@@ -9197,7 +9187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>509</v>
       </c>
@@ -9238,7 +9228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>511</v>
       </c>
@@ -9279,7 +9269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>513</v>
       </c>
@@ -9320,7 +9310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>515</v>
       </c>
@@ -9361,7 +9351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>517</v>
       </c>
@@ -9396,7 +9386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>519</v>
       </c>
@@ -9431,7 +9421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>521</v>
       </c>
@@ -9466,7 +9456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>523</v>
       </c>
@@ -9501,7 +9491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>525</v>
       </c>
@@ -9536,7 +9526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>527</v>
       </c>
@@ -9571,7 +9561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>529</v>
       </c>
@@ -9606,7 +9596,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>531</v>
       </c>
@@ -9641,7 +9631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>533</v>
       </c>
@@ -9676,7 +9666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>535</v>
       </c>
@@ -9711,7 +9701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>537</v>
       </c>
@@ -9746,7 +9736,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
         <v>539</v>
       </c>
@@ -9787,7 +9777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
         <v>541</v>
       </c>
@@ -9828,7 +9818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>543</v>
       </c>
@@ -9869,7 +9859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>545</v>
       </c>
@@ -9910,7 +9900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>547</v>
       </c>
@@ -9951,7 +9941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>549</v>
       </c>
@@ -9992,7 +9982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>551</v>
       </c>
@@ -10033,7 +10023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
         <v>553</v>
       </c>
@@ -10074,7 +10064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
         <v>555</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>557</v>
       </c>
@@ -10156,7 +10146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>559</v>
       </c>
@@ -10197,7 +10187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
         <v>561</v>
       </c>
@@ -10238,7 +10228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
         <v>563</v>
       </c>
@@ -10279,7 +10269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>565</v>
       </c>
@@ -10320,7 +10310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>567</v>
       </c>
@@ -10361,7 +10351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>569</v>
       </c>
@@ -10402,7 +10392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>571</v>
       </c>
@@ -10443,7 +10433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
         <v>573</v>
       </c>
@@ -10484,7 +10474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
         <v>575</v>
       </c>
@@ -10507,7 +10497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
         <v>578</v>
       </c>
@@ -10530,7 +10520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
         <v>580</v>
       </c>
@@ -10553,7 +10543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
         <v>582</v>
       </c>
@@ -10588,7 +10578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>584</v>
       </c>
@@ -10629,7 +10619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>590</v>
       </c>
@@ -10664,7 +10654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>592</v>
       </c>
@@ -10700,7 +10690,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M230"/>
+  <autoFilter ref="A1:M230">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AQUINEX 400MG 10CPS PUB"/>
+        <filter val="AQUINEX 400MG 5CPS E/A EXP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
